--- a/data/获取数据/政策导向指标/非国企20年数据/301529.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301529.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>福赛科技</t>
   </si>
   <si>
-    <t>301529</t>
-  </si>
-  <si>
     <t>2023-09-11</t>
   </si>
   <si>
@@ -161,6 +185,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>陆文波</t>
+  </si>
+  <si>
+    <t>陆文波;芜湖欣众投资中心(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -518,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,16 +600,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301529</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>68</v>
@@ -606,1356 +669,1385 @@
         <v>78.89</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301529</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3">
+        <v>3170</v>
+      </c>
+      <c r="S3">
+        <v>37.371</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>32.12489307503878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301529</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>66</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>59</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>69.68000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>58.86</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>120603</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>765211409</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>16.84</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-8.19</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-5.26</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>62.86</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301529</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>56.56</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>63.06</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>68.48</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>56.56</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>126838</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>805258477</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>20.2</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>6.88</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>4.06</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>66.11</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>62.38</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>61.83</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>68.95999999999999</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>59.02</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>115942</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>747786845</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>15.76</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-1.95</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-1.23</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>60.43</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301529</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>60.5</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>55.01</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>61.2</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>54.97</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>105565</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>601591123</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>10.08</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-11.03</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-6.82</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>55.02</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301529</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>51.18</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>49.69</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>52.8</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>49.51</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>89983</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>458044994</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>5.98</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-9.67</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-5.32</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>46.9</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301529</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>49.7</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>49.2</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>50.5</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>47.47</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>70056</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>342460489</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>6.1</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-0.99</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-0.49</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>36.52</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301529</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>47.9</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>48.23</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>49.3</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>47.01</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>49175</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>237919790</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>4.65</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-1.97</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-0.97</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>25.63</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301529</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>48.37</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>46.07</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>48.77</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>45.97</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>55089</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>259188772</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>5.81</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-4.48</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-2.16</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>28.71</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301529</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>45.41</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>46.09</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>46.48</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>45.18</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>44707</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>204841149</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>2.82</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.04</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.02</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>23.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301529</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>45.91</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>45.52</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>46.5</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>45.23</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>36990</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>169429445</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>2.76</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-1.24</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-0.57</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>19.28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301529</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>45.59</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>46.28</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>46.62</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>45.11</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>49105</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>225985072</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>3.32</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>1.67</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.76</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>25.59</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301529</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>45.9</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>44.87</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>46.55</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>44.81</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>43106</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>197324971</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>3.76</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>-3.05</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-1.41</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>22.47</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301529</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>45.15</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>46.46</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>46.81</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>45</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>48129</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>222186383</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>4.03</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>3.54</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>1.59</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>25.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>46.88</v>
-      </c>
-      <c r="E16">
-        <v>45.79</v>
-      </c>
-      <c r="F16">
-        <v>47.51</v>
-      </c>
-      <c r="G16">
-        <v>45.61</v>
-      </c>
-      <c r="H16">
-        <v>33242</v>
-      </c>
-      <c r="I16">
-        <v>153843279</v>
-      </c>
-      <c r="J16">
-        <v>4.09</v>
-      </c>
-      <c r="K16">
-        <v>-1.44</v>
-      </c>
-      <c r="L16">
-        <v>-0.67</v>
-      </c>
-      <c r="M16">
-        <v>17.33</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301529</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>45.51</v>
+        <v>46.88</v>
       </c>
       <c r="E17">
-        <v>44.61</v>
+        <v>45.79</v>
       </c>
       <c r="F17">
-        <v>46.39</v>
+        <v>47.51</v>
       </c>
       <c r="G17">
-        <v>44.55</v>
+        <v>45.61</v>
       </c>
       <c r="H17">
-        <v>40364</v>
+        <v>33242</v>
       </c>
       <c r="I17">
-        <v>182764583</v>
+        <v>153843279</v>
       </c>
       <c r="J17">
-        <v>4.02</v>
+        <v>4.09</v>
       </c>
       <c r="K17">
-        <v>-2.58</v>
+        <v>-1.44</v>
       </c>
       <c r="L17">
-        <v>-1.18</v>
+        <v>-0.67</v>
       </c>
       <c r="M17">
-        <v>21.04</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301529</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>44.2</v>
+        <v>45.51</v>
       </c>
       <c r="E18">
-        <v>45.3</v>
+        <v>44.61</v>
       </c>
       <c r="F18">
-        <v>45.76</v>
+        <v>46.39</v>
       </c>
       <c r="G18">
-        <v>43.71</v>
+        <v>44.55</v>
       </c>
       <c r="H18">
-        <v>33894</v>
+        <v>40364</v>
       </c>
       <c r="I18">
-        <v>151820604</v>
+        <v>182764583</v>
       </c>
       <c r="J18">
-        <v>4.6</v>
+        <v>4.02</v>
       </c>
       <c r="K18">
-        <v>1.55</v>
+        <v>-2.58</v>
       </c>
       <c r="L18">
-        <v>0.6899999999999999</v>
+        <v>-1.18</v>
       </c>
       <c r="M18">
-        <v>17.67</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301529</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>45.21</v>
+        <v>44.2</v>
       </c>
       <c r="E19">
-        <v>44.35</v>
+        <v>45.3</v>
       </c>
       <c r="F19">
-        <v>45.23</v>
+        <v>45.76</v>
       </c>
       <c r="G19">
-        <v>44.07</v>
+        <v>43.71</v>
       </c>
       <c r="H19">
-        <v>28356</v>
+        <v>33894</v>
       </c>
       <c r="I19">
-        <v>126240964</v>
+        <v>151820604</v>
       </c>
       <c r="J19">
-        <v>2.56</v>
+        <v>4.6</v>
       </c>
       <c r="K19">
-        <v>-2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L19">
-        <v>-0.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M19">
-        <v>14.78</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301529</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>45.38</v>
+        <v>45.21</v>
       </c>
       <c r="E20">
-        <v>47.36</v>
+        <v>44.35</v>
       </c>
       <c r="F20">
-        <v>53.1</v>
+        <v>45.23</v>
       </c>
       <c r="G20">
-        <v>45.33</v>
+        <v>44.07</v>
       </c>
       <c r="H20">
-        <v>95211</v>
+        <v>28356</v>
       </c>
       <c r="I20">
-        <v>458979914</v>
+        <v>126240964</v>
       </c>
       <c r="J20">
-        <v>17.52</v>
+        <v>2.56</v>
       </c>
       <c r="K20">
-        <v>6.79</v>
+        <v>-2.1</v>
       </c>
       <c r="L20">
-        <v>3.01</v>
+        <v>-0.95</v>
       </c>
       <c r="M20">
-        <v>49.63</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301529</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>48.53</v>
+        <v>45.38</v>
       </c>
       <c r="E21">
-        <v>48.72</v>
+        <v>47.36</v>
       </c>
       <c r="F21">
-        <v>51.5</v>
+        <v>53.1</v>
       </c>
       <c r="G21">
-        <v>48.19</v>
+        <v>45.33</v>
       </c>
       <c r="H21">
-        <v>85536</v>
+        <v>95211</v>
       </c>
       <c r="I21">
-        <v>422221722</v>
+        <v>458979914</v>
       </c>
       <c r="J21">
-        <v>6.99</v>
+        <v>17.52</v>
       </c>
       <c r="K21">
-        <v>2.87</v>
+        <v>6.79</v>
       </c>
       <c r="L21">
-        <v>1.36</v>
+        <v>3.01</v>
       </c>
       <c r="M21">
-        <v>44.58</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301529</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>48.53</v>
       </c>
       <c r="E22">
-        <v>44.35</v>
+        <v>48.72</v>
       </c>
       <c r="F22">
-        <v>46.36</v>
+        <v>51.5</v>
       </c>
       <c r="G22">
-        <v>43.8</v>
+        <v>48.19</v>
       </c>
       <c r="H22">
-        <v>63948</v>
+        <v>85536</v>
       </c>
       <c r="I22">
-        <v>285317202</v>
+        <v>422221722</v>
       </c>
       <c r="J22">
-        <v>5.25</v>
+        <v>6.99</v>
       </c>
       <c r="K22">
-        <v>-8.970000000000001</v>
+        <v>2.87</v>
       </c>
       <c r="L22">
-        <v>-4.37</v>
+        <v>1.36</v>
       </c>
       <c r="M22">
-        <v>33.33</v>
+        <v>44.58</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301529</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>43.42</v>
+        <v>46</v>
       </c>
       <c r="E23">
-        <v>41.98</v>
+        <v>44.35</v>
       </c>
       <c r="F23">
-        <v>43.42</v>
+        <v>46.36</v>
       </c>
       <c r="G23">
-        <v>41.55</v>
+        <v>43.8</v>
       </c>
       <c r="H23">
-        <v>50821</v>
+        <v>63948</v>
       </c>
       <c r="I23">
-        <v>215345188</v>
+        <v>285317202</v>
       </c>
       <c r="J23">
-        <v>4.22</v>
+        <v>5.25</v>
       </c>
       <c r="K23">
-        <v>-5.34</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="L23">
-        <v>-2.37</v>
+        <v>-4.37</v>
       </c>
       <c r="M23">
-        <v>26.49</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301529</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>41.5</v>
+        <v>43.42</v>
       </c>
       <c r="E24">
-        <v>41.67</v>
+        <v>41.98</v>
       </c>
       <c r="F24">
-        <v>42.55</v>
+        <v>43.42</v>
       </c>
       <c r="G24">
-        <v>40.81</v>
+        <v>41.55</v>
       </c>
       <c r="H24">
-        <v>31196</v>
+        <v>50821</v>
       </c>
       <c r="I24">
-        <v>129871309</v>
+        <v>215345188</v>
       </c>
       <c r="J24">
-        <v>4.14</v>
+        <v>4.22</v>
       </c>
       <c r="K24">
-        <v>-0.74</v>
+        <v>-5.34</v>
       </c>
       <c r="L24">
-        <v>-0.31</v>
+        <v>-2.37</v>
       </c>
       <c r="M24">
-        <v>16.26</v>
+        <v>26.49</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301529</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="E25">
-        <v>41.87</v>
+        <v>41.67</v>
       </c>
       <c r="F25">
-        <v>43.59</v>
+        <v>42.55</v>
       </c>
       <c r="G25">
-        <v>40.93</v>
+        <v>40.81</v>
       </c>
       <c r="H25">
-        <v>34096</v>
+        <v>31196</v>
       </c>
       <c r="I25">
-        <v>144488018</v>
+        <v>129871309</v>
       </c>
       <c r="J25">
-        <v>6.38</v>
+        <v>4.14</v>
       </c>
       <c r="K25">
-        <v>0.48</v>
+        <v>-0.74</v>
       </c>
       <c r="L25">
-        <v>0.2</v>
+        <v>-0.31</v>
       </c>
       <c r="M25">
-        <v>17.77</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301529</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>41</v>
       </c>
       <c r="E26">
-        <v>40.9</v>
+        <v>41.87</v>
       </c>
       <c r="F26">
-        <v>41.6</v>
+        <v>43.59</v>
       </c>
       <c r="G26">
-        <v>39.84</v>
+        <v>40.93</v>
       </c>
       <c r="H26">
-        <v>30871</v>
+        <v>34096</v>
       </c>
       <c r="I26">
-        <v>125025134</v>
+        <v>144488018</v>
       </c>
       <c r="J26">
-        <v>4.2</v>
+        <v>6.38</v>
       </c>
       <c r="K26">
-        <v>-2.32</v>
+        <v>0.48</v>
       </c>
       <c r="L26">
-        <v>-0.97</v>
+        <v>0.2</v>
       </c>
       <c r="M26">
-        <v>16.09</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301529</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>40.38</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>42.86</v>
+        <v>40.9</v>
       </c>
       <c r="F27">
-        <v>42.89</v>
+        <v>41.6</v>
       </c>
       <c r="G27">
-        <v>40.21</v>
+        <v>39.84</v>
       </c>
       <c r="H27">
-        <v>38934</v>
+        <v>30871</v>
       </c>
       <c r="I27">
-        <v>163676416</v>
+        <v>125025134</v>
       </c>
       <c r="J27">
-        <v>6.55</v>
+        <v>4.2</v>
       </c>
       <c r="K27">
-        <v>4.79</v>
+        <v>-2.32</v>
       </c>
       <c r="L27">
-        <v>1.96</v>
+        <v>-0.97</v>
       </c>
       <c r="M27">
-        <v>20.29</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301529</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>42.57</v>
+        <v>40.38</v>
       </c>
       <c r="E28">
-        <v>42.87</v>
+        <v>42.86</v>
       </c>
       <c r="F28">
-        <v>43.55</v>
+        <v>42.89</v>
       </c>
       <c r="G28">
-        <v>42.03</v>
+        <v>40.21</v>
       </c>
       <c r="H28">
-        <v>36285</v>
+        <v>38934</v>
       </c>
       <c r="I28">
-        <v>155062109</v>
+        <v>163676416</v>
       </c>
       <c r="J28">
-        <v>3.55</v>
+        <v>6.55</v>
       </c>
       <c r="K28">
-        <v>0.02</v>
+        <v>4.79</v>
       </c>
       <c r="L28">
-        <v>0.01</v>
+        <v>1.96</v>
       </c>
       <c r="M28">
-        <v>18.91</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301529</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>42.7</v>
+        <v>42.57</v>
       </c>
       <c r="E29">
-        <v>45.01</v>
+        <v>42.87</v>
       </c>
       <c r="F29">
-        <v>45.85</v>
+        <v>43.55</v>
       </c>
       <c r="G29">
-        <v>42.6</v>
+        <v>42.03</v>
       </c>
       <c r="H29">
-        <v>54358</v>
+        <v>36285</v>
       </c>
       <c r="I29">
-        <v>240617408</v>
+        <v>155062109</v>
       </c>
       <c r="J29">
-        <v>7.58</v>
+        <v>3.55</v>
       </c>
       <c r="K29">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
       <c r="L29">
-        <v>2.14</v>
+        <v>0.01</v>
       </c>
       <c r="M29">
-        <v>28.33</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301529</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>45.98</v>
+        <v>42.7</v>
       </c>
       <c r="E30">
-        <v>44.1</v>
+        <v>45.01</v>
       </c>
       <c r="F30">
-        <v>47</v>
+        <v>45.85</v>
       </c>
       <c r="G30">
-        <v>43.98</v>
+        <v>42.6</v>
       </c>
       <c r="H30">
-        <v>55451</v>
+        <v>54358</v>
       </c>
       <c r="I30">
-        <v>250513427</v>
+        <v>240617408</v>
       </c>
       <c r="J30">
-        <v>6.71</v>
+        <v>7.58</v>
       </c>
       <c r="K30">
-        <v>-2.02</v>
+        <v>4.99</v>
       </c>
       <c r="L30">
-        <v>-0.91</v>
+        <v>2.14</v>
       </c>
       <c r="M30">
-        <v>28.9</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301529</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>43.03</v>
+        <v>45.98</v>
       </c>
       <c r="E31">
-        <v>44.72</v>
+        <v>44.1</v>
       </c>
       <c r="F31">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G31">
-        <v>42.8</v>
+        <v>43.98</v>
       </c>
       <c r="H31">
-        <v>40119</v>
+        <v>55451</v>
       </c>
       <c r="I31">
-        <v>176027308</v>
+        <v>250513427</v>
       </c>
       <c r="J31">
-        <v>4.99</v>
+        <v>6.71</v>
       </c>
       <c r="K31">
-        <v>1.41</v>
+        <v>-2.02</v>
       </c>
       <c r="L31">
-        <v>0.62</v>
+        <v>-0.91</v>
       </c>
       <c r="M31">
-        <v>20.91</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301529</v>
       </c>
       <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>43.03</v>
+      </c>
+      <c r="E32">
+        <v>44.72</v>
+      </c>
+      <c r="F32">
         <v>45</v>
       </c>
-      <c r="D32">
-        <v>44.53</v>
-      </c>
-      <c r="E32">
-        <v>43</v>
-      </c>
-      <c r="F32">
-        <v>44.6</v>
-      </c>
       <c r="G32">
-        <v>42.42</v>
+        <v>42.8</v>
       </c>
       <c r="H32">
-        <v>31249</v>
+        <v>40119</v>
       </c>
       <c r="I32">
-        <v>135890942</v>
+        <v>176027308</v>
       </c>
       <c r="J32">
-        <v>4.87</v>
+        <v>4.99</v>
       </c>
       <c r="K32">
-        <v>-3.85</v>
+        <v>1.41</v>
       </c>
       <c r="L32">
-        <v>-1.72</v>
+        <v>0.62</v>
       </c>
       <c r="M32">
-        <v>16.29</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301529</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
+        <v>44.53</v>
+      </c>
+      <c r="E33">
         <v>43</v>
       </c>
-      <c r="E33">
-        <v>44.76</v>
-      </c>
       <c r="F33">
-        <v>46.49</v>
+        <v>44.6</v>
       </c>
       <c r="G33">
-        <v>42.3</v>
+        <v>42.42</v>
       </c>
       <c r="H33">
-        <v>42105</v>
+        <v>31249</v>
       </c>
       <c r="I33">
-        <v>187297009</v>
+        <v>135890942</v>
       </c>
       <c r="J33">
-        <v>9.74</v>
+        <v>4.87</v>
       </c>
       <c r="K33">
-        <v>4.09</v>
+        <v>-3.85</v>
       </c>
       <c r="L33">
-        <v>1.76</v>
+        <v>-1.72</v>
       </c>
       <c r="M33">
-        <v>21.95</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301529</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>44.2</v>
+        <v>43</v>
       </c>
       <c r="E34">
-        <v>44.56</v>
+        <v>44.76</v>
       </c>
       <c r="F34">
-        <v>45.2</v>
+        <v>46.49</v>
       </c>
       <c r="G34">
-        <v>43.13</v>
+        <v>42.3</v>
       </c>
       <c r="H34">
-        <v>33646</v>
+        <v>42105</v>
       </c>
       <c r="I34">
-        <v>149633789</v>
+        <v>187297009</v>
       </c>
       <c r="J34">
-        <v>4.62</v>
+        <v>9.74</v>
       </c>
       <c r="K34">
-        <v>-0.45</v>
+        <v>4.09</v>
       </c>
       <c r="L34">
-        <v>-0.2</v>
+        <v>1.76</v>
       </c>
       <c r="M34">
-        <v>17.54</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301529</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
+        <v>44.2</v>
+      </c>
+      <c r="E35">
+        <v>44.56</v>
+      </c>
+      <c r="F35">
+        <v>45.2</v>
+      </c>
+      <c r="G35">
+        <v>43.13</v>
+      </c>
+      <c r="H35">
+        <v>33646</v>
+      </c>
+      <c r="I35">
+        <v>149633789</v>
+      </c>
+      <c r="J35">
+        <v>4.62</v>
+      </c>
+      <c r="K35">
+        <v>-0.45</v>
+      </c>
+      <c r="L35">
+        <v>-0.2</v>
+      </c>
+      <c r="M35">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301529</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36">
         <v>44.88</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>45.07</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>46.49</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>44.47</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>41416</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>188292878.25</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>4.53</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>1.14</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>0.51</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>21.59</v>
       </c>
     </row>
